--- a/datamining/final_data/topic6_candidates.xlsx
+++ b/datamining/final_data/topic6_candidates.xlsx
@@ -436,257 +436,257 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.23481</v>
+        <v>0.9931688333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.15084</v>
+        <v>0.8909311666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.99973</v>
+        <v>0.554932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.22459</v>
+        <v>0.4694053333333334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05712</v>
+        <v>0.4665258333333334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.13421</v>
+        <v>0.4494058333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.52474</v>
+        <v>0.4346990000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.32443</v>
+        <v>0.4299745</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.20035</v>
+        <v>0.4297946666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.15085</v>
+        <v>0.428947</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.37867</v>
+        <v>0.3985296666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07580000000000001</v>
+        <v>0.3982303333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.30742</v>
+        <v>0.3794588333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.09961</v>
+        <v>0.3793026666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.30053</v>
+        <v>0.3771336666666666</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.14257</v>
+        <v>0.3770258333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.24112</v>
+        <v>0.358207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.33418</v>
+        <v>0.3478658333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.28247</v>
+        <v>0.3451313333333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.48362</v>
+        <v>0.3298438333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1678</v>
+        <v>0.3277528333333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('통계', '유의미')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.20365</v>
+        <v>0.3137753333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.14036</v>
+        <v>0.3131476666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.09775</v>
+        <v>0.3081856666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.30956</v>
+        <v>0.2807646666666667</v>
       </c>
     </row>
     <row r="27">
@@ -696,467 +696,467 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.35499</v>
+        <v>0.2763908333333334</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0974</v>
+        <v>0.2761495</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.21259</v>
+        <v>0.273326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.35136</v>
+        <v>0.26787</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.13174</v>
+        <v>0.263275</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.27213</v>
+        <v>0.2605495</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.4074</v>
+        <v>0.2567731666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.14049</v>
+        <v>0.2547803333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4376</v>
+        <v>0.2530928333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.14204</v>
+        <v>0.2528</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02136</v>
+        <v>0.2511558333333334</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.13861</v>
+        <v>0.2470793333333334</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.28179</v>
+        <v>0.2463691666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.17542</v>
+        <v>0.2429468333333334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.15813</v>
+        <v>0.241349</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.16033</v>
+        <v>0.231573</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.34646</v>
+        <v>0.2245713333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.10436</v>
+        <v>0.2243141666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.51644</v>
+        <v>0.22189</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5279700000000001</v>
+        <v>0.2185215</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.32216</v>
+        <v>0.2163186666666666</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2082</v>
+        <v>0.2149556666666667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1081</v>
+        <v>0.2130168333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.10678</v>
+        <v>0.2082521666666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.23574</v>
+        <v>0.2015021666666666</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.57413</v>
+        <v>0.1968711666666667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.34052</v>
+        <v>0.191771</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.31961</v>
+        <v>0.1873093333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.10132</v>
+        <v>0.182754</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.17187</v>
+        <v>0.1794031666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.46644</v>
+        <v>0.1792341666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.24587</v>
+        <v>0.1784166666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.40823</v>
+        <v>0.176183</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.08275</v>
+        <v>0.1672833333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.37595</v>
+        <v>0.1566626666666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.48683</v>
+        <v>0.1398158333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.4531</v>
+        <v>0.1378641666666667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.24358</v>
+        <v>0.135027</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.16319</v>
+        <v>0.1316881666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.26507</v>
+        <v>0.130319</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.30614</v>
+        <v>0.1243251666666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.08243</v>
+        <v>0.122716</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.27331</v>
+        <v>0.1221486666666667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.26487</v>
+        <v>0.1218548333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.04714</v>
+        <v>0.121695</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.10834</v>
+        <v>0.1208651666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.49222</v>
+        <v>0.1208465</v>
       </c>
     </row>
     <row r="74">
@@ -1166,277 +1166,277 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.19536</v>
+        <v>0.1190141666666667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.11871</v>
+        <v>0.1180595</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.09626999999999999</v>
+        <v>0.1178978333333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.15421</v>
+        <v>0.1157376666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.109</v>
+        <v>0.1104301666666667</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.49023</v>
+        <v>0.1096015</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.49146</v>
+        <v>0.1053118333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.30416</v>
+        <v>0.1032521666666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.27293</v>
+        <v>0.0990325</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.18297</v>
+        <v>0.09049533333333333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.41824</v>
+        <v>0.08937233333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.29823</v>
+        <v>0.08833616666666666</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.65618</v>
+        <v>0.08657599999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.24814</v>
+        <v>0.08591066666666666</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.57234</v>
+        <v>0.08367250000000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0701</v>
+        <v>0.08316366666666666</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.12419</v>
+        <v>0.07839383333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.45879</v>
+        <v>0.07796</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.17968</v>
+        <v>0.07704633333333333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.47759</v>
+        <v>0.06622500000000001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.37643</v>
+        <v>0.0639335</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.16427</v>
+        <v>0.06022283333333334</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.5621</v>
+        <v>0.05919683333333332</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.10005</v>
+        <v>0.05604283333333333</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.39627</v>
+        <v>0.05313749999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.30146</v>
+        <v>0.033198</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.1773</v>
+        <v>0.02542483333333334</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.40093</v>
+        <v>0.01599833333333333</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic6_candidates.xlsx
+++ b/datamining/final_data/topic6_candidates.xlsx
@@ -442,1001 +442,1001 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9931688333333333</v>
+        <v>1.055246666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8909311666666666</v>
+        <v>0.9161296666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.554932</v>
+        <v>0.8913651666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('ㄴ', '형태', '의')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4694053333333334</v>
+        <v>0.7404674999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('ㄴ', '관심', '높')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4665258333333334</v>
+        <v>0.6310355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('기술', '의', '발달')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4494058333333333</v>
+        <v>0.5901963333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('유', '미', 'ㄴ')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4346990000000001</v>
+        <v>0.5698096666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('ㄴ', '인재', '양성')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4299745</v>
+        <v>0.5428818333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('있', '을', '것')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4297946666666667</v>
+        <v>0.4708305</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('얻', '을', '수')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.428947</v>
+        <v>0.4700445</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('도움', '주', 'ㄹ')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3985296666666667</v>
+        <v>0.4658615</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3982303333333333</v>
+        <v>0.459777</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3794588333333333</v>
+        <v>0.448124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3793026666666667</v>
+        <v>0.438396</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3771336666666666</v>
+        <v>0.4303195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('이', '같', '은')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3770258333333333</v>
+        <v>0.4231088333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('찾', '을', '수')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.358207</v>
+        <v>0.4227628333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('연구', '제시', 'ㄴ')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3478658333333333</v>
+        <v>0.4208146666666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('는', '데', '있')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3451313333333333</v>
+        <v>0.4125021666666666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('중', '의', '하나')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3298438333333333</v>
+        <v>0.4124341666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3277528333333333</v>
+        <v>0.4102695</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3137753333333333</v>
+        <v>0.4099763333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3131476666666667</v>
+        <v>0.393398</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3081856666666667</v>
+        <v>0.3836946666666666</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('수준', '맞', '는')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2807646666666667</v>
+        <v>0.3705178333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2763908333333334</v>
+        <v>0.3651458333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('ㄹ', '필요', '있')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2761495</v>
+        <v>0.3634561666666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.273326</v>
+        <v>0.3611908333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.26787</v>
+        <v>0.3553118333333334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('다는', '점', '의의')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.263275</v>
+        <v>0.3452148333333334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2605495</v>
+        <v>0.3407645</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('것', '알', 'ㄹ')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2567731666666667</v>
+        <v>0.3405666666666666</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2547803333333333</v>
+        <v>0.3279301666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2530928333333333</v>
+        <v>0.3246918333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('는', '영향', '분석')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2528</v>
+        <v>0.3209445</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('ㄴ', '기초', '자료')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2511558333333334</v>
+        <v>0.3184773333333333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2470793333333334</v>
+        <v>0.3139863333333334</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2463691666666667</v>
+        <v>0.3137115</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2429468333333334</v>
+        <v>0.3080953333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('의', '자기', '주도')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.241349</v>
+        <v>0.2859828333333334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.231573</v>
+        <v>0.2852103333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('영향', '주', '는')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2245713333333333</v>
+        <v>0.282443</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2243141666666667</v>
+        <v>0.2764086666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.22189</v>
+        <v>0.2616691666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('학습자', '중심', '의')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2185215</v>
+        <v>0.2548015</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2163186666666666</v>
+        <v>0.253012</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2149556666666667</v>
+        <v>0.2515811666666666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2130168333333333</v>
+        <v>0.250919</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2082521666666667</v>
+        <v>0.250919</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2015021666666666</v>
+        <v>0.2478085</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1968711666666667</v>
+        <v>0.2422633333333334</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.191771</v>
+        <v>0.2403861666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1873093333333333</v>
+        <v>0.2377923333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.182754</v>
+        <v>0.2310856666666666</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('향상', '긍정', 'ㄴ')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1794031666666667</v>
+        <v>0.2251545</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1792341666666667</v>
+        <v>0.2205578333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1784166666666667</v>
+        <v>0.2163186666666666</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.176183</v>
+        <v>0.2136866666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1672833333333333</v>
+        <v>0.2106753333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('초점', '맞추', 'ㄴ')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1566626666666667</v>
+        <v>0.2083156666666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1398158333333333</v>
+        <v>0.2015021666666666</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1378641666666667</v>
+        <v>0.2015021666666666</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.135027</v>
+        <v>0.200827</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('예비', '교원', '의')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1316881666666667</v>
+        <v>0.199715</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.130319</v>
+        <v>0.1955321666666666</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1243251666666667</v>
+        <v>0.1935841666666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.122716</v>
+        <v>0.1873188333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('의', '스', '마')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1221486666666667</v>
+        <v>0.1804036666666666</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1218548333333333</v>
+        <v>0.1786045</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.121695</v>
+        <v>0.1770501666666667</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1208651666666667</v>
+        <v>0.1674943333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1208465</v>
+        <v>0.153072</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1190141666666667</v>
+        <v>0.1527943333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1180595</v>
+        <v>0.1443133333333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1178978333333333</v>
+        <v>0.1274135</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1157376666666667</v>
+        <v>0.1265963333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1104301666666667</v>
+        <v>0.1247305</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1096015</v>
+        <v>0.1240223333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1053118333333333</v>
+        <v>0.1208465</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1032521666666667</v>
+        <v>0.120331</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0990325</v>
+        <v>0.1202918333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.09049533333333333</v>
+        <v>0.1132926666666667</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.08937233333333333</v>
+        <v>0.111017</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.08833616666666666</v>
+        <v>0.1032501666666667</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.08657599999999999</v>
+        <v>0.10317</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.08591066666666666</v>
+        <v>0.1025973333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.08367250000000001</v>
+        <v>0.09581299999999998</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.08316366666666666</v>
+        <v>0.09327033333333334</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.07839383333333333</v>
+        <v>0.09243416666666668</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.07796</v>
+        <v>0.09114233333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.07704633333333333</v>
+        <v>0.08698316666666667</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.06622500000000001</v>
+        <v>0.07729833333333333</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0639335</v>
+        <v>0.07387616666666666</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('그리', 'ㄴ', 'it')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.06022283333333334</v>
+        <v>0.0605865</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.05919683333333332</v>
+        <v>0.05604283333333333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.05604283333333333</v>
+        <v>0.04863916666666666</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.05313749999999999</v>
+        <v>0.04261966666666666</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.033198</v>
+        <v>0.03587400000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.02542483333333334</v>
+        <v>0.0333285</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.01599833333333333</v>
+        <v>0.02042616666666667</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic6_candidates.xlsx
+++ b/datamining/final_data/topic6_candidates.xlsx
@@ -472,881 +472,881 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '형태', '의')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7404674999999999</v>
+        <v>0.6310355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '관심', '높')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6310355</v>
+        <v>0.5237425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('기술', '의', '발달')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5901963333333333</v>
+        <v>0.4870608333333334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('유', '미', 'ㄴ')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5698096666666667</v>
+        <v>0.459777</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '인재', '양성')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5428818333333333</v>
+        <v>0.448124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('있', '을', '것')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4708305</v>
+        <v>0.448124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('얻', '을', '수')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4700445</v>
+        <v>0.438396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', 'ㄹ')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4658615</v>
+        <v>0.432388</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.459777</v>
+        <v>0.4303195</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.448124</v>
+        <v>0.4102695</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.438396</v>
+        <v>0.4099763333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4303195</v>
+        <v>0.4082593333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('이', '같', '은')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4231088333333333</v>
+        <v>0.393398</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('찾', '을', '수')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4227628333333333</v>
+        <v>0.3836946666666666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('연구', '제시', 'ㄴ')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4208146666666666</v>
+        <v>0.3682821666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('는', '데', '있')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4125021666666666</v>
+        <v>0.3651458333333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('중', '의', '하나')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4124341666666667</v>
+        <v>0.3611908333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4102695</v>
+        <v>0.3407645</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4099763333333333</v>
+        <v>0.3387501666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.393398</v>
+        <v>0.331816</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3836946666666666</v>
+        <v>0.3279301666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('수준', '맞', '는')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3705178333333333</v>
+        <v>0.3246918333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3651458333333333</v>
+        <v>0.3162273333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('ㄹ', '필요', '있')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3634561666666666</v>
+        <v>0.3161471666666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3611908333333333</v>
+        <v>0.3137115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3553118333333334</v>
+        <v>0.3121878333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('다는', '점', '의의')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3452148333333334</v>
+        <v>0.3085316666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3407645</v>
+        <v>0.3080953333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', 'ㄹ')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3405666666666666</v>
+        <v>0.2852103333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3279301666666667</v>
+        <v>0.2764086666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3246918333333333</v>
+        <v>0.2670958333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('는', '영향', '분석')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3209445</v>
+        <v>0.2616691666666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '기초', '자료')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3184773333333333</v>
+        <v>0.2568611666666666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3139863333333334</v>
+        <v>0.253012</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3137115</v>
+        <v>0.252642</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3080953333333333</v>
+        <v>0.2515811666666666</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('의', '자기', '주도')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2859828333333334</v>
+        <v>0.250919</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2852103333333333</v>
+        <v>0.250919</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '는')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.282443</v>
+        <v>0.2478085</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2764086666666667</v>
+        <v>0.2445828333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2616691666666667</v>
+        <v>0.2434915</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('학습자', '중심', '의')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2548015</v>
+        <v>0.2422633333333334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.253012</v>
+        <v>0.2377923333333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2515811666666666</v>
+        <v>0.2310856666666666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.250919</v>
+        <v>0.2205578333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.250919</v>
+        <v>0.2203885</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2478085</v>
+        <v>0.2163186666666666</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2422633333333334</v>
+        <v>0.2136866666666667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2403861666666667</v>
+        <v>0.2111631666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2377923333333333</v>
+        <v>0.2106753333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2310856666666666</v>
+        <v>0.2015021666666666</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', 'ㄴ')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2251545</v>
+        <v>0.2015021666666666</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2205578333333333</v>
+        <v>0.200827</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2163186666666666</v>
+        <v>0.1955321666666666</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2136866666666667</v>
+        <v>0.1935841666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2106753333333333</v>
+        <v>0.1905625</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추', 'ㄴ')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2083156666666667</v>
+        <v>0.1873188333333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2015021666666666</v>
+        <v>0.1825346666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2015021666666666</v>
+        <v>0.1786045</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.200827</v>
+        <v>0.1770501666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원', '의')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.199715</v>
+        <v>0.1674943333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1955321666666666</v>
+        <v>0.153072</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1935841666666667</v>
+        <v>0.1527943333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1873188333333333</v>
+        <v>0.1443133333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('의', '스', '마')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1804036666666666</v>
+        <v>0.1429515</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1786045</v>
+        <v>0.1353688333333334</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1770501666666667</v>
+        <v>0.1351623333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1674943333333333</v>
+        <v>0.1265963333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.153072</v>
+        <v>0.1240223333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1527943333333333</v>
+        <v>0.1226148333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1443133333333333</v>
+        <v>0.1225298333333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1274135</v>
+        <v>0.1208465</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1265963333333333</v>
+        <v>0.1132926666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1247305</v>
+        <v>0.111017</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1240223333333333</v>
+        <v>0.1098653333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1208465</v>
+        <v>0.1036186666666667</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.120331</v>
+        <v>0.1032501666666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1202918333333333</v>
+        <v>0.10317</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1132926666666667</v>
+        <v>0.1025973333333333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.111017</v>
+        <v>0.09581299999999998</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1032501666666667</v>
+        <v>0.09327033333333334</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.10317</v>
+        <v>0.0931535</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1025973333333333</v>
+        <v>0.09271</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.09581299999999998</v>
+        <v>0.09243416666666668</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.09327033333333334</v>
+        <v>0.09114233333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.09243416666666668</v>
+        <v>0.09114233333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.09114233333333333</v>
+        <v>0.08698316666666667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.08698316666666667</v>
+        <v>0.07854083333333334</v>
       </c>
     </row>
     <row r="93">
@@ -1372,7 +1372,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'ㄴ', 'it')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1402,41 +1402,41 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.04261966666666666</v>
+        <v>0.04768266666666667</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.03587400000000001</v>
+        <v>0.04261966666666666</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0333285</v>
+        <v>0.03587400000000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.02042616666666667</v>
+        <v>0.0333285</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic6_candidates.xlsx
+++ b/datamining/final_data/topic6_candidates.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.055246666666667</v>
+        <v>1.026973333333333</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9161296666666667</v>
+        <v>0.8880520833333334</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8913651666666667</v>
+        <v>0.8640464583333333</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6310355</v>
+        <v>0.6059043749999999</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5237425</v>
+        <v>0.506315625</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4870608333333334</v>
+        <v>0.4657460416666667</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.459777</v>
+        <v>0.43609125</v>
       </c>
     </row>
     <row r="9">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.448124</v>
+        <v>0.42348</v>
       </c>
     </row>
     <row r="10">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.448124</v>
+        <v>0.42348</v>
       </c>
     </row>
     <row r="11">
@@ -536,27 +536,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.438396</v>
+        <v>0.41065</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('있', '알', '수')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.432388</v>
+        <v>0.406531875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4303195</v>
+        <v>0.4053099999999999</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4102695</v>
+        <v>0.393669375</v>
       </c>
     </row>
     <row r="15">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4099763333333333</v>
+        <v>0.3879904166666667</v>
       </c>
     </row>
     <row r="16">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4082593333333333</v>
+        <v>0.3825191666666666</v>
       </c>
     </row>
     <row r="17">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.393398</v>
+        <v>0.3646025000000001</v>
       </c>
     </row>
     <row r="18">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3836946666666666</v>
+        <v>0.3622408333333333</v>
       </c>
     </row>
     <row r="19">
@@ -616,27 +616,27 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3682821666666667</v>
+        <v>0.3472127083333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3651458333333333</v>
+        <v>0.3395960416666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3611908333333333</v>
+        <v>0.3387997916666667</v>
       </c>
     </row>
     <row r="22">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3407645</v>
+        <v>0.328235625</v>
       </c>
     </row>
     <row r="23">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3387501666666667</v>
+        <v>0.3161427083333334</v>
       </c>
     </row>
     <row r="24">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.331816</v>
+        <v>0.3072525</v>
       </c>
     </row>
     <row r="25">
@@ -676,47 +676,47 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3279301666666667</v>
+        <v>0.3028002083333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3246918333333333</v>
+        <v>0.2958691666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('미치', '영향', '분석')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3162273333333333</v>
+        <v>0.2951864583333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3161471666666666</v>
+        <v>0.2946647916666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3137115</v>
+        <v>0.2903766666666667</v>
       </c>
     </row>
     <row r="30">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3121878333333333</v>
+        <v>0.2897997916666666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('그', '효과', '검증')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3085316666666667</v>
+        <v>0.288261875</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3080953333333333</v>
+        <v>0.2834595833333334</v>
       </c>
     </row>
     <row r="33">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2852103333333333</v>
+        <v>0.2574829166666667</v>
       </c>
     </row>
     <row r="34">
@@ -766,17 +766,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2764086666666667</v>
+        <v>0.2507058333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('학년', '학생', '명')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2670958333333333</v>
+        <v>0.2471875</v>
       </c>
     </row>
     <row r="36">
@@ -786,127 +786,127 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2616691666666667</v>
+        <v>0.2469089583333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', '영향')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2568611666666666</v>
+        <v>0.2462797916666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.253012</v>
+        <v>0.2373964583333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '것')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.252642</v>
+        <v>0.23421625</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2515811666666666</v>
+        <v>0.23421625</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.250919</v>
+        <v>0.2325464583333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.250919</v>
+        <v>0.231258125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2478085</v>
+        <v>0.2310975</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2445828333333333</v>
+        <v>0.228411875</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2434915</v>
+        <v>0.2262391666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2422633333333334</v>
+        <v>0.2244385416666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2377923333333333</v>
+        <v>0.2182170833333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2310856666666666</v>
+        <v>0.2082979166666666</v>
       </c>
     </row>
     <row r="49">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2205578333333333</v>
+        <v>0.2043047916666667</v>
       </c>
     </row>
     <row r="50">
@@ -926,127 +926,127 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2203885</v>
+        <v>0.203953125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2163186666666666</v>
+        <v>0.2022383333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2136866666666667</v>
+        <v>0.1964614583333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('방법', '평가', '방법')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2111631666666667</v>
+        <v>0.1954416666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2106753333333333</v>
+        <v>0.18931125</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2015021666666666</v>
+        <v>0.1868533333333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2015021666666666</v>
+        <v>0.1840535416666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.200827</v>
+        <v>0.1837902083333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1955321666666666</v>
+        <v>0.1788402083333334</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1935841666666667</v>
+        <v>0.178730625</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('학습', '방법', '평가')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1905625</v>
+        <v>0.1720758333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1873188333333333</v>
+        <v>0.1707702083333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('전자', '책')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1825346666666667</v>
+        <v>0.1707702083333333</v>
       </c>
     </row>
     <row r="63">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1786045</v>
+        <v>0.167005625</v>
       </c>
     </row>
     <row r="64">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1770501666666667</v>
+        <v>0.1644327083333333</v>
       </c>
     </row>
     <row r="65">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1674943333333333</v>
+        <v>0.1505529166666666</v>
       </c>
     </row>
     <row r="66">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.153072</v>
+        <v>0.1426075</v>
       </c>
     </row>
     <row r="67">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1527943333333333</v>
+        <v>0.1406229166666667</v>
       </c>
     </row>
     <row r="68">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1443133333333333</v>
+        <v>0.1342816666666667</v>
       </c>
     </row>
     <row r="69">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1429515</v>
+        <v>0.133794375</v>
       </c>
     </row>
     <row r="70">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1353688333333334</v>
+        <v>0.1269260416666667</v>
       </c>
     </row>
     <row r="71">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1351623333333333</v>
+        <v>0.1226429166666666</v>
       </c>
     </row>
     <row r="72">
@@ -1146,27 +1146,27 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1265963333333333</v>
+        <v>0.1184604166666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1240223333333333</v>
+        <v>0.1160185416666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1226148333333333</v>
+        <v>0.1146054166666667</v>
       </c>
     </row>
     <row r="75">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1225298333333333</v>
+        <v>0.1141447916666667</v>
       </c>
     </row>
     <row r="76">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1208465</v>
+        <v>0.113348125</v>
       </c>
     </row>
     <row r="77">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1132926666666667</v>
+        <v>0.1095608333333333</v>
       </c>
     </row>
     <row r="78">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.111017</v>
+        <v>0.10138375</v>
       </c>
     </row>
     <row r="79">
@@ -1216,47 +1216,47 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1098653333333333</v>
+        <v>0.1009291666666667</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '중독')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1036186666666667</v>
+        <v>0.09788416666666667</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1032501666666667</v>
+        <v>0.097875</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.10317</v>
+        <v>0.09594083333333334</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1025973333333333</v>
+        <v>0.09550770833333333</v>
       </c>
     </row>
     <row r="84">
@@ -1266,67 +1266,67 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.09581299999999998</v>
+        <v>0.09056374999999998</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.09327033333333334</v>
+        <v>0.086855</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독', '치료')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0931535</v>
+        <v>0.08492270833333335</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '활용')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.09271</v>
+        <v>0.08465291666666666</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.09243416666666668</v>
+        <v>0.08465291666666666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.09114233333333333</v>
+        <v>0.08443437500000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.09114233333333333</v>
+        <v>0.08271291666666666</v>
       </c>
     </row>
     <row r="91">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.08698316666666667</v>
+        <v>0.07996895833333334</v>
       </c>
     </row>
     <row r="92">
@@ -1346,27 +1346,27 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.07854083333333334</v>
+        <v>0.07374854166666667</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.07729833333333333</v>
+        <v>0.06895520833333334</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.07387616666666666</v>
+        <v>0.06885041666666666</v>
       </c>
     </row>
     <row r="95">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.0605865</v>
+        <v>0.054218125</v>
       </c>
     </row>
     <row r="96">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.05604283333333333</v>
+        <v>0.05110354166666667</v>
       </c>
     </row>
     <row r="97">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.04863916666666666</v>
+        <v>0.04434645833333332</v>
       </c>
     </row>
     <row r="98">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.04768266666666667</v>
+        <v>0.04390833333333334</v>
       </c>
     </row>
     <row r="99">
@@ -1416,27 +1416,27 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.04261966666666666</v>
+        <v>0.03685208333333333</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.03587400000000001</v>
+        <v>0.027310625</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0333285</v>
+        <v>0.02693750000000001</v>
       </c>
     </row>
   </sheetData>
